--- a/代码整洁之道和重构/重构.xlsx
+++ b/代码整洁之道和重构/重构.xlsx
@@ -1,54 +1,59 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715"/>
+    <workbookView windowHeight="14480"/>
   </bookViews>
   <sheets>
     <sheet name="代码坏味道" sheetId="1" r:id="rId1"/>
     <sheet name="重构手法" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57">
   <si>
     <t>坏味道</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神秘的命名</t>
+  </si>
+  <si>
+    <t xml:space="preserve">整洁代码最重要的一环就是好的名字，所以我们会深思熟虑给模块、类、函数、字段取一个好的名字 </t>
   </si>
   <si>
     <t>重复代码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>如果你在一个以上地点看到相同的程序结构，那么可以肯定，设法将他们合二为一</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>过长函数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1、间接层所能带来的全部利益——解释能力、共享能力、选择能力，都是由小函数支持的
 2、函数名字非常重要，通过名字就能了解小函数是做什么用的
 3、原则：每当感觉需要以注释来说明点什么的时候，我们就把需要说明的东西写进一个独立的函数中，关键不在于函数的长度，而在于函数“做什么”和“如何做”之间的语义距离</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>过大的类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
       <t>1</t>
     </r>
     <r>
@@ -56,7 +61,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">、太多实例变量
@@ -67,7 +71,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>2</t>
@@ -77,19 +80,22 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>、有太多代码</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>过长的参数列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
       <t>1</t>
     </r>
     <r>
@@ -97,7 +103,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>、参数最好</t>
@@ -107,7 +112,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>1</t>
@@ -117,7 +121,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>到</t>
@@ -127,7 +130,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>2</t>
@@ -137,7 +139,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>个，不超过</t>
@@ -147,7 +148,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>3</t>
@@ -157,7 +157,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">个
@@ -168,7 +167,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>2</t>
@@ -178,7 +176,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">、函数需要的东西多半可以在函数的宿主类中找到
@@ -189,7 +186,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>3</t>
@@ -199,23 +195,28 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>、将对象传递给函数</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全局数据</t>
+  </si>
+  <si>
+    <t>可变数据</t>
   </si>
   <si>
     <t>发散式变化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>散弹式修改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
       <t>1</t>
     </r>
     <r>
@@ -223,7 +224,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">、发散式变化指“一个类受多种变化的影响”。
@@ -234,7 +234,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>2</t>
@@ -244,7 +243,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">、如果某个类经常因为不同原因在不同方向上发生变化，就存在发散式变化
@@ -255,7 +253,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>3</t>
@@ -265,7 +262,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">、每个对象应该只因一种变化而需要修改
@@ -276,7 +272,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>4</t>
@@ -286,19 +281,28 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>、针对某一外界变化的所有相应修改，都只应该发生在单一类中</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>extract class</t>
+  </si>
+  <si>
+    <t>散弹式修改</t>
   </si>
   <si>
     <t>一种变化引发多个类进行相应修改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
       <t>move method</t>
     </r>
     <r>
@@ -306,7 +310,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>、</t>
@@ -316,48 +319,41 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>move field</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>extract class</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>依恋情结</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>函数对某个类的兴趣高过对自己所处类的兴趣
 搬移函数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>数据泥团</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>两个类中相同的字段，许多函数签名中相同的参数，这些总是绑在一起出现的数据真应该有属于他们自己的对象</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>基本类型偏执</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>善于运用对象，尤其小对象，不偏执基本类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>switch惊悚现身</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
       <t>switch</t>
     </r>
     <r>
@@ -365,7 +361,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>语句的问题在于重复，用多态替换</t>
@@ -375,7 +370,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>switch</t>
@@ -385,51 +379,46 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>语句</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>平行继承体系</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>每当你为某个类增加一个子类，也必须为另一个类相应增加子类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>冗赘类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>某些类没有做足够的工作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>夸夸奇谈未来性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>对未来不确定性的假设</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>令人迷惑的暂时字段</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>对象内的某个实例变量仅为某种特定情况而设</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>过度耦合的消息链</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
@@ -437,7 +426,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>向一</t>
@@ -447,7 +435,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> </t>
@@ -457,27 +444,28 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>个对象请求另一个对象，然后再向后者请求另一个对象</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>中间人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>某个类接口有一半的函数都委托给其他类，过度运用委托</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>狎昵关系</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">  </t>
     </r>
     <r>
@@ -485,7 +473,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>两个类的关系过于亲密，花费太多时间去探究彼此的</t>
@@ -495,7 +482,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>private</t>
@@ -505,121 +491,435 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>成分</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>异曲同工的类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>两个函数做同一件事，却有不同签名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>不完美的库类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>不完美的类库，如何扩展</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>纯稚的数据类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>拥有一些字段，以及用于访问这些字段的函数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>被拒绝的遗遵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>子类应该继承超类的函数和数据，但如果他们不想或不需要继承，又该怎么办，如果子类复用了超类的行为，却又不愿意支持超类的接口，拒绝继承超类的实现，但如果拒绝继承超类的接口，我们不以为然</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>过多的注释</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>你看到一段代码有着长长的注释，注释之所以存在是因为代码很糟糕，当你感觉需要撰写注释时，请先尝试重构，试着让所有注释都变得多余</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>动机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>提炼函数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>过长函数或者一段需要注释才能让人理解用途的代码，就可以提炼函数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">    </t>
     </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t/>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Tahoma"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -627,31 +927,325 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -934,273 +1528,295 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="26.875" customWidth="1"/>
-    <col min="2" max="2" width="42.25" style="3" customWidth="1"/>
+    <col min="1" max="1" width="53.3333333333333" customWidth="1"/>
+    <col min="2" max="2" width="67.2166666666667" style="4" customWidth="1"/>
     <col min="3" max="3" width="24.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
+    <row r="1" ht="17" spans="1:2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="27.75">
-      <c r="A2" s="1" t="s">
+    <row r="2" ht="34" spans="1:2">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="121.5" customHeight="1">
-      <c r="A3" s="1" t="s">
+    <row r="3" ht="34" spans="1:2">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="28.5">
-      <c r="A4" s="1" t="s">
+    <row r="4" ht="121.5" customHeight="1" spans="1:2">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="56.25">
-      <c r="A5" s="1" t="s">
+    <row r="5" ht="34" spans="1:2">
+      <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="84.75">
-      <c r="A6" s="1" t="s">
+    <row r="6" ht="51" spans="1:2">
+      <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" ht="16.8" spans="1:1">
+      <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C6" t="s">
+    </row>
+    <row r="8" ht="16.8" spans="1:1">
+      <c r="A8" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" ht="68" spans="1:3">
+      <c r="A9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="27.75">
-      <c r="A8" s="1" t="s">
+      <c r="C9" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="2" t="s">
+    </row>
+    <row r="10" ht="17" spans="1:3">
+      <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="41.25">
-      <c r="A9" s="1" t="s">
+      <c r="B10" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="C10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1" t="s">
+    <row r="11" ht="34" spans="1:2">
+      <c r="A11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B11" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1" t="s">
+    <row r="12" ht="51" spans="1:2">
+      <c r="A12" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B12" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="27.75">
-      <c r="A12" s="1" t="s">
+    <row r="13" ht="17" spans="1:2">
+      <c r="A13" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B13" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="1" t="s">
+    <row r="14" ht="34" spans="1:2">
+      <c r="A14" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B14" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="1" t="s">
+    <row r="15" ht="34" spans="1:2">
+      <c r="A15" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B15" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="1" t="s">
+    <row r="16" ht="17" spans="1:2">
+      <c r="A16" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B16" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="28.5">
-      <c r="A16" s="1" t="s">
+    <row r="17" ht="17" spans="1:2">
+      <c r="A17" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B17" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="27.75">
-      <c r="A17" s="1" t="s">
+    <row r="18" ht="17" spans="1:2">
+      <c r="A18" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B18" s="5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="28.5">
-      <c r="A18" s="1" t="s">
+    <row r="19" ht="34" spans="1:2">
+      <c r="A19" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B19" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="1" t="s">
+    <row r="20" ht="34" spans="1:2">
+      <c r="A20" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B20" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="1" t="s">
+    <row r="21" ht="34" spans="1:2">
+      <c r="A21" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B21" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="1" t="s">
+    <row r="22" ht="17" spans="1:2">
+      <c r="A22" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B22" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="68.25">
-      <c r="A22" s="1" t="s">
+    <row r="23" ht="17" spans="1:2">
+      <c r="A23" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B23" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="41.25">
-      <c r="A23" s="1" t="s">
+    <row r="24" ht="17" spans="1:2">
+      <c r="A24" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B24" s="5" t="s">
         <v>47</v>
       </c>
     </row>
+    <row r="25" ht="84" spans="1:2">
+      <c r="A25" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" ht="51" spans="1:2">
+      <c r="A26" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="28.625" customWidth="1"/>
-    <col min="2" max="2" width="39.875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="39.875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="27.75">
-      <c r="A2" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="B8" s="5" t="s">
+    <row r="1" ht="17" spans="1:2">
+      <c r="A1" s="2" t="s">
         <v>52</v>
       </c>
+      <c r="B1" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" ht="34" spans="1:2">
+      <c r="A2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" ht="15" spans="2:2">
+      <c r="B8" s="1" t="s">
+        <v>56</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/代码整洁之道和重构/重构.xlsx
+++ b/代码整洁之道和重构/重构.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="14480"/>
+    <workbookView windowHeight="16200"/>
   </bookViews>
   <sheets>
     <sheet name="代码坏味道" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59">
   <si>
     <t>坏味道</t>
   </si>
@@ -204,7 +204,51 @@
     <t>全局数据</t>
   </si>
   <si>
+    <r>
+      <t>定义的全局变量，到处都可以修改，难以判断哪里进行了修改，出现</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>bug</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="华文宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的时候，找出</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>bug</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="华文宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>难于登天</t>
+    </r>
+  </si>
+  <si>
     <t>可变数据</t>
+  </si>
+  <si>
+    <t>此处变化的数据主要</t>
   </si>
   <si>
     <t>发散式变化</t>
@@ -555,12 +599,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -575,21 +619,28 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="华文宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -603,6 +654,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -611,17 +700,63 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -634,92 +769,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -734,6 +784,120 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -746,25 +910,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -776,85 +928,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -866,49 +946,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -931,8 +981,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -942,6 +992,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -961,41 +1026,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1007,6 +1037,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1025,155 +1064,166 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1186,6 +1236,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1537,7 +1590,7 @@
   <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -1595,164 +1648,170 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" ht="16.8" spans="1:1">
+    <row r="7" ht="29" spans="1:2">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" ht="16.8" spans="1:1">
+      <c r="B7" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" ht="16.8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="9" ht="68" spans="1:3">
       <c r="A9" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" ht="17" spans="1:3">
       <c r="A10" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" ht="34" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" ht="51" spans="1:2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" ht="34" spans="1:2">
       <c r="A12" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" ht="17" spans="1:2">
       <c r="A13" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" ht="34" spans="1:2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" ht="17" spans="1:2">
       <c r="A14" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" ht="34" spans="1:2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" ht="17" spans="1:2">
       <c r="A15" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" ht="17" spans="1:2">
       <c r="A16" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" ht="17" spans="1:2">
       <c r="A17" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" ht="17" spans="1:2">
       <c r="A18" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" ht="34" spans="1:2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" ht="17" spans="1:2">
       <c r="A19" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" ht="34" spans="1:2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" ht="17" spans="1:2">
       <c r="A20" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" ht="34" spans="1:2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" ht="17" spans="1:2">
       <c r="A21" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" ht="17" spans="1:2">
       <c r="A22" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" ht="17" spans="1:2">
       <c r="A23" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" ht="17" spans="1:2">
       <c r="A24" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" ht="84" spans="1:2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" ht="51" spans="1:2">
       <c r="A25" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="26" ht="51" spans="1:2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" ht="34" spans="1:2">
       <c r="A26" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1779,23 +1838,23 @@
   <sheetData>
     <row r="1" ht="17" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" ht="34" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" ht="15" spans="2:2">
       <c r="B8" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
